--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3258.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3258.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.538683277265386</v>
+        <v>3.065160274505615</v>
       </c>
       <c r="B1">
-        <v>1.759433641769712</v>
+        <v>2.630269050598145</v>
       </c>
       <c r="C1">
-        <v>2.201413344316189</v>
+        <v>2.015894174575806</v>
       </c>
       <c r="D1">
-        <v>4.443793250157409</v>
+        <v>1.798981785774231</v>
       </c>
       <c r="E1">
-        <v>2.498560462085326</v>
+        <v>1.611698269844055</v>
       </c>
     </row>
   </sheetData>
